--- a/data/trans_camb/P16A01-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A01-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>1.934611854220175</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.1851248391141216</v>
+        <v>0.1851248391141203</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.655691169156916</v>
+        <v>-1.371087233761644</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.140580752362928</v>
+        <v>-4.062842552916058</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.963566205586276</v>
+        <v>-4.955604734761747</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.965227325867649</v>
+        <v>1.841674231445817</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.490233845612832</v>
+        <v>1.254742519570982</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.556132297441338</v>
+        <v>-2.148083595431554</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.250840096128317</v>
+        <v>1.217846858067918</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.4134382099491555</v>
+        <v>-0.3152935249668271</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.610473711297034</v>
+        <v>-2.536601833006256</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.483491775041404</v>
+        <v>5.69432919436132</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.443701129767304</v>
+        <v>2.347419290880097</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.087190762226626</v>
+        <v>4.068456762720891</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.319515322185543</v>
+        <v>9.38044302351754</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.985066994813225</v>
+        <v>8.870872155308325</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.606321346123332</v>
+        <v>7.130142873669547</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.562990162506053</v>
+        <v>6.708363605867622</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.716527792685009</v>
+        <v>4.720421866396777</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.23368289632753</v>
+        <v>3.782383507844434</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.2848665030586128</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.02725914525577303</v>
+        <v>0.02725914525577282</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1884511591878476</v>
+        <v>-0.175848899801732</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4933477060674392</v>
+        <v>-0.4717667317547321</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6193056921034746</v>
+        <v>-0.6221431106838676</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2054563817778934</v>
+        <v>0.2144783916383326</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.150665309488249</v>
+        <v>0.1634548166651195</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3659135238517349</v>
+        <v>-0.3121786082917081</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1445995487846279</v>
+        <v>0.1497363726740371</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.06010254896693256</v>
+        <v>-0.0468742959617859</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3485207002210007</v>
+        <v>-0.3563796513440309</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9682485282885405</v>
+        <v>0.9938179938924425</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.4588895036737878</v>
+        <v>0.4247203953439771</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.699926221854787</v>
+        <v>0.6889561100686821</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.832938098034684</v>
+        <v>1.930965686469752</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.819999663186327</v>
+        <v>1.878067476540189</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.227273808122602</v>
+        <v>1.401670307295247</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.146007278130555</v>
+        <v>1.160013368867126</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8379393250776785</v>
+        <v>0.8350853897996994</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6809606208888178</v>
+        <v>0.673206292419205</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>4.07318892053365</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.341646183814414</v>
+        <v>6.341646183814412</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.759001828136961</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.243883260055642</v>
+        <v>2.100379431970897</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.385872032266694</v>
+        <v>1.357938806407554</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.191084105582224</v>
+        <v>2.497727234725071</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.091744858268691</v>
+        <v>-1.440690541365125</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.733691710637145</v>
+        <v>-2.454202876851397</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.36647701247527</v>
+        <v>-3.476166514154484</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.387281607782509</v>
+        <v>1.091748201815515</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5684347929525744</v>
+        <v>0.487809357156792</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8447052202070763</v>
+        <v>0.5595200198238059</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.624456065889711</v>
+        <v>7.579736734465545</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.020177759054655</v>
+        <v>7.143368394529813</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.5773537908359</v>
+        <v>11.12202833133944</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.410625997808952</v>
+        <v>4.755333642203881</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.887897928561992</v>
+        <v>3.617962813368363</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.936906645184702</v>
+        <v>2.901870020825363</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.803021258843437</v>
+        <v>5.333108674679036</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.755488076950649</v>
+        <v>4.749795289245175</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.918496882339721</v>
+        <v>5.781825543247621</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.8704645521942281</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.355247280021822</v>
+        <v>1.355247280021821</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2322831546755252</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3649337239995655</v>
+        <v>0.3556664553631437</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2238789836329433</v>
+        <v>0.2214951393072944</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4728270893957482</v>
+        <v>0.3998938445631656</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2146005119204643</v>
+        <v>-0.1555865891844293</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2977789652959633</v>
+        <v>-0.2678372867762412</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3931591979469575</v>
+        <v>-0.3844497864334249</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2110289433750937</v>
+        <v>0.1582096065578988</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.07239633585993101</v>
+        <v>0.05851096107076281</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1262082515796175</v>
+        <v>0.077503972651511</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.121963350963546</v>
+        <v>2.224301652776523</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.940991151017509</v>
+        <v>2.023283166104793</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.038320602646566</v>
+        <v>2.928171774222077</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6835178879766137</v>
+        <v>0.7925398501878285</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6306386574370206</v>
+        <v>0.5851365510769012</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4880405995323214</v>
+        <v>0.4599335228745874</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.115720084800464</v>
+        <v>1.032925018913838</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9099679861910707</v>
+        <v>0.9216446863616616</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.14612870269122</v>
+        <v>1.104810701842412</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.550274918744055</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-0.8000862257367763</v>
+        <v>-0.8000862257367749</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.010977029880027</v>
@@ -1092,7 +1092,7 @@
         <v>0.8535946984842848</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.1891019447223322</v>
+        <v>0.1891019447223308</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5883102953997715</v>
+        <v>-0.6896986603303041</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.535163122397478</v>
+        <v>-1.329517603068513</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.886197328582668</v>
+        <v>-1.676181160667342</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.8009677397308</v>
+        <v>-2.962564945910133</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.237843445250708</v>
+        <v>-2.189685698825785</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.495284082750601</v>
+        <v>-3.725077582955834</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.9499174563890946</v>
+        <v>-1.095972816877892</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.162374288437953</v>
+        <v>-1.17187077748431</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.695731491832873</v>
+        <v>-1.729856273344162</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.629011111176387</v>
+        <v>5.006094129037582</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.843162022143614</v>
+        <v>3.961506171827852</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.203066496635333</v>
+        <v>4.308371470391827</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.787476818157129</v>
+        <v>2.715209471609344</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.580697317230814</v>
+        <v>3.545249508108343</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.776190169940659</v>
+        <v>1.747595992946608</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.438816808805579</v>
+        <v>2.968137588107287</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.796246528766094</v>
+        <v>2.93970656107728</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.08760259860998</v>
+        <v>2.147150753778326</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.07385771674449992</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.1073873073599564</v>
+        <v>-0.1073873073599562</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1481447084185922</v>
@@ -1197,7 +1197,7 @@
         <v>0.1250825033380007</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.02771027593535249</v>
+        <v>0.02771027593535228</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1049651769315092</v>
+        <v>-0.09278038085538676</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2058083333815282</v>
+        <v>-0.1994440825151388</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.256318080514407</v>
+        <v>-0.2272252053439198</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3146843655866605</v>
+        <v>-0.3353202334846286</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2519990152640116</v>
+        <v>-0.2556306752883682</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3873340371785116</v>
+        <v>-0.4131793957455721</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1226264795163988</v>
+        <v>-0.1438446080930243</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1458606428181577</v>
+        <v>-0.1450766292154509</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2168050836558158</v>
+        <v>-0.2258958729041523</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.138576894379719</v>
+        <v>1.122243889923051</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8019596231722085</v>
+        <v>0.8091673002551198</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.91390325461155</v>
+        <v>0.9122668390285491</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4591347204049687</v>
+        <v>0.4506706911922884</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.622314447027192</v>
+        <v>0.6036131521094651</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3111870582513994</v>
+        <v>0.297404324575112</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5808736363458634</v>
+        <v>0.4923065395623992</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4871816000952325</v>
+        <v>0.5149057527140882</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3681169448821577</v>
+        <v>0.3639510353109364</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.145971856236583</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.421226483456719</v>
+        <v>1.421226483456718</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.294500454402169</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3324480687778522</v>
+        <v>-0.695770838896371</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.726383794736612</v>
+        <v>-1.685286061319318</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.544903414965971</v>
+        <v>-1.498980608638077</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.3973164073968521</v>
+        <v>0.4669385559701856</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06746882172186483</v>
+        <v>0.03653540876020168</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2341388597195002</v>
+        <v>0.06222591228206893</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8512465151821605</v>
+        <v>0.8233797434197863</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.17401719190215</v>
+        <v>-0.1208015929589229</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2223674512584271</v>
+        <v>0.05454705834145911</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.95818197182299</v>
+        <v>5.785369358261621</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.041436756729508</v>
+        <v>4.239352397428053</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.339947044784752</v>
+        <v>4.361614947769326</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.091226126704139</v>
+        <v>6.159513598184993</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.459117436521002</v>
+        <v>5.538005820404066</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.818253665523808</v>
+        <v>4.605342555130408</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.122551695235121</v>
+        <v>5.070380650467104</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.041146523021205</v>
+        <v>4.138421082229576</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.715362292366473</v>
+        <v>3.86268112171252</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2221849867067672</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2755523057705405</v>
+        <v>0.2755523057705402</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.778987978641686</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.08162566334389447</v>
+        <v>-0.1378101008390293</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2713489732497482</v>
+        <v>-0.2551212830520436</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2241719980473207</v>
+        <v>-0.2248555708480135</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.0350112152175465</v>
+        <v>0.03142051934705931</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.01855823620843727</v>
+        <v>0.004595247372174987</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02760229694388826</v>
+        <v>0.003259907708959497</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1437564772093937</v>
+        <v>0.1292033627316869</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.02826690529281151</v>
+        <v>-0.03899767924985829</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.02739088078153855</v>
+        <v>0.006677987606569866</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.575179629888127</v>
+        <v>1.548901418936964</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.077123168784975</v>
+        <v>1.230505076374952</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.234866660152214</v>
+        <v>1.255754767692051</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.030820670164107</v>
+        <v>2.03896200607084</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.010191774050459</v>
+        <v>1.915292967383189</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.789708097559534</v>
+        <v>1.64734995987239</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.432162472710402</v>
+        <v>1.396911905132877</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.117147563290285</v>
+        <v>1.117418947838802</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.003150456527475</v>
+        <v>1.067114440489719</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.915966497200324</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-1.081808320364798</v>
+        <v>-1.081808320364799</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.7921814217272061</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.36803255021719</v>
+        <v>-1.321334343196864</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.83574409846288</v>
+        <v>-2.712762635191904</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.17840522879688</v>
+        <v>-4.433935044904393</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.434137642001565</v>
+        <v>-2.272438560903961</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.289743689385796</v>
+        <v>-0.1814225436756292</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.9974275701160485</v>
+        <v>0.4694429344399708</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.908354749044241</v>
+        <v>-0.7428698687887817</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.594646446452606</v>
+        <v>-0.136951548586303</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.8649098790424908</v>
+        <v>-0.8162827799655498</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.456269777799263</v>
+        <v>6.433722385984597</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.884274549965443</v>
+        <v>4.723604237556556</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.952125591921654</v>
+        <v>1.931825629763525</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.32889356608332</v>
+        <v>4.366370708078804</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.441823246099733</v>
+        <v>6.692526693713162</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.530232439500977</v>
+        <v>6.454552835336804</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.280863686287811</v>
+        <v>4.499067522090958</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.397512378806737</v>
+        <v>4.776917337126702</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>3.238891285701571</v>
+        <v>3.488783840555573</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1343669331709325</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1586949596197132</v>
+        <v>-0.1586949596197134</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1497870752255842</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1769895704205704</v>
+        <v>-0.1545432133714342</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3559190172104505</v>
+        <v>-0.3254095151258509</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4766509919438313</v>
+        <v>-0.5092982553364962</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3662729112038495</v>
+        <v>-0.3448235997931245</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.04541651186632684</v>
+        <v>-0.03945344615005469</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1149666614941715</v>
+        <v>0.04541893372564017</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1336232198935899</v>
+        <v>-0.1049789254035675</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.0910965107770064</v>
+        <v>-0.02028045352341295</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.111158223252763</v>
+        <v>-0.1203028548691034</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.285337816323613</v>
+        <v>1.301915968303474</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.975066841213645</v>
+        <v>0.9694998584415251</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4407202652510509</v>
+        <v>0.3993079976983561</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.165429088521544</v>
+        <v>1.061432082338902</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.751688979764692</v>
+        <v>1.871716110096799</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.811886204226135</v>
+        <v>1.700477644663928</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.8959446197711938</v>
+        <v>0.9869942626105761</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.8970915146076789</v>
+        <v>0.9829070879179238</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.6996117519360182</v>
+        <v>0.7029026550808749</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-1.059675702075802</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-0.400309812158596</v>
+        <v>-0.4003098121585974</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-0.527129503738756</v>
@@ -1734,7 +1734,7 @@
         <v>-1.691819855282391</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-1.166947735593298</v>
+        <v>-1.166947735593296</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.43802275125613</v>
+        <v>-5.081590301633073</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-7.151991079539709</v>
+        <v>-7.367159981905154</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-6.495543598854342</v>
+        <v>-6.301816636382529</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-5.283406981781495</v>
+        <v>-5.396397486741389</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.002949436293139</v>
+        <v>-4.876021186133766</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-4.158942723353581</v>
+        <v>-4.304994158658696</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-3.973830910684786</v>
+        <v>-3.833059906656863</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-4.712165546963503</v>
+        <v>-4.856325006087729</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-4.128928905324569</v>
+        <v>-3.961018664750481</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.52877588690483</v>
+        <v>5.420387899834576</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.704299370657577</v>
+        <v>1.652542784150279</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.685246699132679</v>
+        <v>1.761858681579348</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.400666680168061</v>
+        <v>2.77838812968369</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.930890124784915</v>
+        <v>3.009023587922198</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>2.56446444477173</v>
+        <v>3.007711546305611</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.523557991919901</v>
+        <v>2.456899800381389</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>1.108554780743919</v>
+        <v>1.151294800914493</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>1.353035216870127</v>
+        <v>1.171948835998961</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.1246710417344985</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.04709652321044121</v>
+        <v>-0.04709652321044137</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.05724745996992271</v>
@@ -1839,7 +1839,7 @@
         <v>-0.1837354744036465</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.1267331714626953</v>
+        <v>-0.1267331714626951</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.3570480667065611</v>
+        <v>-0.4070411082881717</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.585283993511027</v>
+        <v>-0.5653317823693309</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4903059018916988</v>
+        <v>-0.4917752704700425</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.4993403115116072</v>
+        <v>-0.5181432253260025</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5012365442778225</v>
+        <v>-0.4658280545658347</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.3784438338406278</v>
+        <v>-0.3747864775411214</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.3619116296279819</v>
+        <v>-0.3571921293127051</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4356657193715558</v>
+        <v>-0.4262278141945144</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.3705838744134901</v>
+        <v>-0.3444235716037125</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.716705550261848</v>
+        <v>0.7197852788398041</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.23377822604741</v>
+        <v>0.2273055291796108</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.2543516141272004</v>
+        <v>0.2478871677655685</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.3595428038558457</v>
+        <v>0.4725278917467655</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.488164459618878</v>
+        <v>0.4882186135830692</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4118565492340283</v>
+        <v>0.5090485287383453</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.312914232004765</v>
+        <v>0.317551575391837</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1396784329070769</v>
+        <v>0.1612045113676742</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.1888648739037281</v>
+        <v>0.1647426123143701</v>
       </c>
     </row>
     <row r="40">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-8.069957698284776</v>
+        <v>-7.497108815757798</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-11.16382382438433</v>
+        <v>-10.97938623074827</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-16.83526313660866</v>
+        <v>-17.30177910514194</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>0.5544246026354795</v>
+        <v>0.8483692855646424</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.1040673704813992</v>
+        <v>0.4737642683513446</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.7632467183298589</v>
+        <v>0.4690731575575976</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.109044339790685</v>
+        <v>-1.297292106895716</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.110955824300695</v>
+        <v>-2.747278996375396</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-4.737498649250199</v>
+        <v>-5.051049954233246</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>5.588195846190504</v>
+        <v>6.285629375007229</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.377178912325836</v>
+        <v>1.506913765453522</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-5.862762024063596</v>
+        <v>-6.089054480846202</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8.338877845954716</v>
+        <v>8.468811401184769</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>8.684341186930723</v>
+        <v>8.599534968456284</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.130884420530818</v>
+        <v>7.00669988537847</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>6.267541450194648</v>
+        <v>6.107421501997761</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.351358969864465</v>
+        <v>4.582650257261435</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>0.8507133958660259</v>
+        <v>1.177638965182828</v>
       </c>
     </row>
     <row r="43">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3862317043918388</v>
+        <v>-0.3860823655444728</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5477531226770375</v>
+        <v>-0.5310203994557239</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.7931065905645849</v>
+        <v>-0.7965353269081097</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.04609160859500917</v>
+        <v>0.0733961426705465</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.07958092731345445</v>
+        <v>0.01215252574275179</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.05893239636294718</v>
+        <v>0.02255779390428142</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.09784945677299343</v>
+        <v>-0.1301500981329989</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.287143456875196</v>
+        <v>-0.2419658920535304</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.4201719221037252</v>
+        <v>-0.4210146222000906</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.421645933824046</v>
+        <v>0.4810740421891515</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1051973955042367</v>
+        <v>0.1124082442066197</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.4534995110534228</v>
+        <v>-0.4555199696461779</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2.757751829696305</v>
+        <v>2.76703309986376</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2.858562201114985</v>
+        <v>2.696224254309413</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.473909091225824</v>
+        <v>2.695890050347213</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.8334199719110219</v>
+        <v>0.8095757083205106</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.5904411744745524</v>
+        <v>0.581166273183498</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.1119493697141202</v>
+        <v>0.1628535412451169</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>0.771540561929053</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.260856657432236</v>
+        <v>0.2608566574322374</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>1.896155674826111</v>
@@ -2153,7 +2153,7 @@
         <v>1.906373750710115</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1.302501022658788</v>
+        <v>1.302501022658789</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>2.204119204061715</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>1.264349541809893</v>
+        <v>0.979508316194926</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.4787582573773145</v>
+        <v>-0.484616130999616</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.009725980786783</v>
+        <v>-1.151855353855683</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.6526390155642415</v>
+        <v>0.5747859540237737</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>0.7363976310984368</v>
+        <v>0.6237039962803416</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.2010279338916403</v>
+        <v>0.1485522722448692</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>1.32964237689627</v>
+        <v>1.256744415428307</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>0.5097281999918979</v>
+        <v>0.5074305112791719</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.09129975332178143</v>
+        <v>-0.1729361977621331</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>3.961385602845661</v>
+        <v>3.816457751970481</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>2.078166576728856</v>
+        <v>2.253104940623885</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.50700007127263</v>
+        <v>1.582535406108927</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.129604830988906</v>
+        <v>3.184732350484193</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.176611537514954</v>
+        <v>3.218049466910009</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.535535265513726</v>
+        <v>2.53484884286621</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>3.228585926362679</v>
+        <v>3.158837057903999</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>2.391348365546043</v>
+        <v>2.24316373626231</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.667438066453792</v>
+        <v>1.661565773787374</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.1114681305141387</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.03768720060995605</v>
+        <v>0.03768720060995625</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.2951612605960689</v>
@@ -2258,7 +2258,7 @@
         <v>0.2967518368334685</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.2027512028045339</v>
+        <v>0.2027512028045341</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.3305019810728335</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1618044632505992</v>
+        <v>0.1336208254973631</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.06560396315746597</v>
+        <v>-0.06161069656070318</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1378816073982841</v>
+        <v>-0.1515007449977602</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.09281629833289928</v>
+        <v>0.08067805455774095</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1046333339389819</v>
+        <v>0.08457570902382099</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.02634203619926438</v>
+        <v>0.01885204434640861</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1869841795452493</v>
+        <v>0.1774046257536055</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.06992828072767586</v>
+        <v>0.07366959138622135</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.01555918816255417</v>
+        <v>-0.02477635558589548</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.614268377525546</v>
+        <v>0.6002041471155322</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3302062177870949</v>
+        <v>0.3741382092655061</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2362861221325333</v>
+        <v>0.2484746786918719</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.525375256486696</v>
+        <v>0.5486663647530354</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.5486894717255117</v>
+        <v>0.5526790400332797</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.4375792762267283</v>
+        <v>0.4313229713576252</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5181530502782561</v>
+        <v>0.5031755987760221</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.3730368638795375</v>
+        <v>0.3587027768437235</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.2629414369996761</v>
+        <v>0.2671309328300703</v>
       </c>
     </row>
     <row r="52">
